--- a/excel_params/0.5_V2av.xlsx
+++ b/excel_params/0.5_V2av.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\毕设\CODE\dp_crystmorph\regionI_double_peak\region_I_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E46896-38AC-4EC3-A88E-D49CC645B8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7AD42-1727-4361-B3BB-2B1DC0303C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="15375" windowHeight="8325" xr2:uid="{A2B22A7A-29C5-414C-903F-334D5F086B96}"/>
+    <workbookView xWindow="0" yWindow="1875" windowWidth="19785" windowHeight="7590" xr2:uid="{A2B22A7A-29C5-414C-903F-334D5F086B96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,19 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V2Av_w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>V2Av_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nw/(nw+nn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -439,7 +443,7 @@
         <v>23220789637.15155</v>
       </c>
       <c r="D2">
-        <v>0.13060008127345377</v>
+        <v>0.4703679403970486</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -453,7 +457,7 @@
         <v>17838951053.941628</v>
       </c>
       <c r="D3">
-        <v>0.10236699917873503</v>
+        <v>0.44535673633177636</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -467,7 +471,7 @@
         <v>16034513697.636414</v>
       </c>
       <c r="D4">
-        <v>0.1006756341242656</v>
+        <v>0.51806663602544512</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -481,7 +485,7 @@
         <v>24425417050.199062</v>
       </c>
       <c r="D5">
-        <v>0.13280716322540517</v>
+        <v>0.49442605128425815</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -495,7 +499,7 @@
         <v>7335502549.7122002</v>
       </c>
       <c r="D6">
-        <v>6.4562218557420947E-2</v>
+        <v>0.19858941914859712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -509,7 +513,7 @@
         <v>25634400790.199638</v>
       </c>
       <c r="D7">
-        <v>0.15462698466127556</v>
+        <v>0.39839859914639042</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -523,7 +527,7 @@
         <v>21243657545.125858</v>
       </c>
       <c r="D8">
-        <v>0.14475017246836475</v>
+        <v>0.4030078462828447</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -537,7 +541,7 @@
         <v>16675025687.115005</v>
       </c>
       <c r="D9">
-        <v>8.1236607389943566E-2</v>
+        <v>0.70067270805137438</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -551,7 +555,7 @@
         <v>16746222789.20241</v>
       </c>
       <c r="D10">
-        <v>7.9755879242897176E-2</v>
+        <v>0.71769338030154584</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +569,7 @@
         <v>16863913353.069868</v>
       </c>
       <c r="D11">
-        <v>7.9947697371806695E-2</v>
+        <v>0.71172073429922666</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -579,7 +583,7 @@
         <v>16746222789.20241</v>
       </c>
       <c r="D12">
-        <v>7.9755879242897176E-2</v>
+        <v>0.71769338030154584</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -593,7 +597,7 @@
         <v>16746222789.20241</v>
       </c>
       <c r="D13">
-        <v>7.9620487172139223E-2</v>
+        <v>0.71806727540480508</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,7 +611,7 @@
         <v>18526620042.109215</v>
       </c>
       <c r="D14">
-        <v>9.9596146033208127E-2</v>
+        <v>0.68593286112705598</v>
       </c>
     </row>
   </sheetData>
